--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1282467.447170783</v>
+        <v>-1285345.274503243</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>329.3514945089902</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>171.0057390608448</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>169.2877875831265</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>189.5968436493439</v>
+        <v>103.8744449383598</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>68.0189354100135</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>60.46179076613117</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>162.0223670888553</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>43.99240337009289</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>62.60484777940904</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>157.7061603512636</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>22.11041309544157</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>28.61716211051682</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>405.339001364369</v>
       </c>
       <c r="G11" t="n">
         <v>409.8432760127576</v>
@@ -1427,7 +1427,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
-        <v>326.2152140927927</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,7 +1543,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440903</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>70.58824835914021</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>153.9036548888877</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>83.07554622347736</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>384.7008942787112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>118.7022347043234</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>89.97676987682992</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>59.31005804030086</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>79.75167225698489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>106.2078024559162</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>182.6625718220553</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>64.91921363453635</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2527,10 +2527,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.57570591153986</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.228861054224671</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>32.44181015857173</v>
       </c>
     </row>
     <row r="29">
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>20.43112068613155</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976.0491016702019</v>
+        <v>994.3352828674997</v>
       </c>
       <c r="C2" t="n">
-        <v>976.0491016702019</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="D2" t="n">
-        <v>803.3160319117728</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E2" t="n">
-        <v>803.3160319117728</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F2" t="n">
-        <v>392.3301271221653</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>378.4067230607562</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.188433646014</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y2" t="n">
-        <v>976.0491016702019</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,13 +4416,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>2342.015910972395</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>2562.808490115925</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>2562.808490115925</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>2342.015910972395</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>898.8784838925781</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>898.8784838925781</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D5" t="n">
-        <v>540.6127852858276</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E5" t="n">
-        <v>540.6127852858276</v>
+        <v>135.884402556362</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>128.9389018071586</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>115.0154977457495</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.01781586839</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>898.8784838925781</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,40 +4647,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.37975290126636</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C7" t="n">
-        <v>98.37975290126636</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D7" t="n">
-        <v>98.37975290126636</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y7" t="n">
-        <v>280.0282177315061</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1721.819089287443</v>
+        <v>1485.384143294141</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>1485.384143294141</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1485.384143294141</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1099.595890695897</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>688.609985906289</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>270.6461778044759</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2306.643761992922</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2052.881976631014</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1721.819089287443</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>1721.819089287443</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X8" t="n">
-        <v>1721.819089287443</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y8" t="n">
-        <v>1721.819089287443</v>
+        <v>1871.983983358263</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782191</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782191</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>229.7391536723322</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>229.7391536723322</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.229508727735</v>
+        <v>2316.676938649612</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.266991787324</v>
+        <v>1947.7144217092</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.001293180573</v>
+        <v>1589.44872310245</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.213040582329</v>
+        <v>1203.660470504205</v>
       </c>
       <c r="F11" t="n">
         <v>794.2271357927214</v>
@@ -5045,13 +5045,13 @@
         <v>842.9429223347665</v>
       </c>
       <c r="L11" t="n">
-        <v>1511.709654113219</v>
+        <v>1462.462702840541</v>
       </c>
       <c r="M11" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.467264779579</v>
       </c>
       <c r="N11" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.752242696685</v>
       </c>
       <c r="O11" t="n">
         <v>3652.861230428501</v>
@@ -5075,16 +5075,16 @@
         <v>4150.71341156431</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.203094298863</v>
+        <v>3819.650524220739</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.434439028749</v>
+        <v>3466.881868950625</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.968680767669</v>
+        <v>3093.416110689545</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.829348791857</v>
+        <v>2703.276778713734</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>94.85569562249445</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>242.5036773743404</v>
+        <v>241.4646447998178</v>
       </c>
       <c r="K12" t="n">
-        <v>573.0124199376992</v>
+        <v>571.9733873631765</v>
       </c>
       <c r="L12" t="n">
-        <v>573.0124199376992</v>
+        <v>1062.705720206928</v>
       </c>
       <c r="M12" t="n">
-        <v>1165.030774189827</v>
+        <v>1062.705720206928</v>
       </c>
       <c r="N12" t="n">
-        <v>1787.126737589163</v>
+        <v>1356.759402180614</v>
       </c>
       <c r="O12" t="n">
-        <v>1868.309672946898</v>
+        <v>1903.635877180809</v>
       </c>
       <c r="P12" t="n">
-        <v>2287.893191372974</v>
+        <v>2323.219395606885</v>
       </c>
       <c r="Q12" t="n">
-        <v>2518.454465358221</v>
+        <v>2553.780669592131</v>
       </c>
       <c r="R12" t="n">
         <v>2553.780669592131</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.5814239664454</v>
+        <v>1099.390323855922</v>
       </c>
       <c r="C13" t="n">
-        <v>788.5814239664454</v>
+        <v>930.454140928015</v>
       </c>
       <c r="D13" t="n">
-        <v>638.4647845541097</v>
+        <v>780.3375015156793</v>
       </c>
       <c r="E13" t="n">
-        <v>490.5516909717165</v>
+        <v>632.4244079332861</v>
       </c>
       <c r="F13" t="n">
-        <v>343.6617434738062</v>
+        <v>485.5344604353758</v>
       </c>
       <c r="G13" t="n">
-        <v>176.447548648385</v>
+        <v>318.3202656099546</v>
       </c>
       <c r="H13" t="n">
         <v>176.447548648385</v>
@@ -5221,28 +5221,28 @@
         <v>2429.380814232059</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.52146919056</v>
+        <v>2429.380814232059</v>
       </c>
       <c r="S13" t="n">
-        <v>2290.220208221732</v>
+        <v>2429.380814232059</v>
       </c>
       <c r="T13" t="n">
-        <v>2070.541425936114</v>
+        <v>2273.922576970556</v>
       </c>
       <c r="U13" t="n">
-        <v>1781.465212250841</v>
+        <v>2273.922576970556</v>
       </c>
       <c r="V13" t="n">
-        <v>1526.780724044954</v>
+        <v>2019.23808876467</v>
       </c>
       <c r="W13" t="n">
-        <v>1237.363554007993</v>
+        <v>1729.820918727709</v>
       </c>
       <c r="X13" t="n">
-        <v>1009.374003109976</v>
+        <v>1501.831367829692</v>
       </c>
       <c r="Y13" t="n">
-        <v>788.5814239664454</v>
+        <v>1281.038788686162</v>
       </c>
     </row>
     <row r="14">
@@ -5279,16 +5279,16 @@
         <v>373.3125385470848</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9429223347665</v>
+        <v>892.189873607444</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.462702840541</v>
+        <v>1511.709654113219</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.467264779579</v>
+        <v>2232.714216052256</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.752242696685</v>
+        <v>2969.999193969362</v>
       </c>
       <c r="O14" t="n">
         <v>3652.861230428501</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.918459243566</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.709310922884</v>
       </c>
       <c r="U14" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.265981642434</v>
       </c>
       <c r="V14" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.203094298863</v>
       </c>
       <c r="W14" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.434439028749</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.416110689545</v>
+        <v>3094.968680767669</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.829348791857</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4646447998178</v>
       </c>
       <c r="K15" t="n">
-        <v>424.3254056113306</v>
+        <v>571.9733873631765</v>
       </c>
       <c r="L15" t="n">
-        <v>915.0577384550818</v>
+        <v>1062.705720206928</v>
       </c>
       <c r="M15" t="n">
-        <v>1507.076092707209</v>
+        <v>1062.705720206928</v>
       </c>
       <c r="N15" t="n">
-        <v>1551.994471931951</v>
+        <v>1356.759402180614</v>
       </c>
       <c r="O15" t="n">
-        <v>2098.870946932145</v>
+        <v>1903.635877180809</v>
       </c>
       <c r="P15" t="n">
-        <v>2518.454465358221</v>
+        <v>2323.219395606885</v>
       </c>
       <c r="Q15" t="n">
-        <v>2518.454465358221</v>
+        <v>2553.780669592131</v>
       </c>
       <c r="R15" t="n">
         <v>2553.780669592131</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>817.6078630913503</v>
+        <v>874.8867212939391</v>
       </c>
       <c r="C16" t="n">
-        <v>817.6078630913503</v>
+        <v>705.9505383660322</v>
       </c>
       <c r="D16" t="n">
-        <v>697.7066159152661</v>
+        <v>555.8338989536965</v>
       </c>
       <c r="E16" t="n">
-        <v>549.793522332873</v>
+        <v>407.9208053713033</v>
       </c>
       <c r="F16" t="n">
-        <v>402.9035748349626</v>
+        <v>261.030857873393</v>
       </c>
       <c r="G16" t="n">
-        <v>235.6893800095415</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2429.380814232059</v>
       </c>
       <c r="S16" t="n">
-        <v>2246.210623970989</v>
+        <v>2338.495188093847</v>
       </c>
       <c r="T16" t="n">
-        <v>2026.531841685371</v>
+        <v>2338.495188093847</v>
       </c>
       <c r="U16" t="n">
-        <v>1737.455628000098</v>
+        <v>2049.418974408574</v>
       </c>
       <c r="V16" t="n">
-        <v>1737.455628000098</v>
+        <v>1794.734486202687</v>
       </c>
       <c r="W16" t="n">
-        <v>1448.038457963137</v>
+        <v>1505.317316165726</v>
       </c>
       <c r="X16" t="n">
-        <v>1220.04890706512</v>
+        <v>1277.327765267709</v>
       </c>
       <c r="Y16" t="n">
-        <v>999.25632792159</v>
+        <v>1056.535186124179</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5495,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,19 +5595,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,55 +5647,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206043</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5704,19 +5704,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W19" t="n">
-        <v>1420.189824692392</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.200273794374</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508441</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5738,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2156.827640693835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1867.752414038033</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1613.067925832146</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W22" t="n">
-        <v>1323.650755795185</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X22" t="n">
-        <v>1095.661204897168</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>874.8686257536381</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273905</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>1320.560501433898</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1872.470231673185</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2529.355041543136</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356194</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>853.594109445026</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>703.4774700326902</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>555.5643764502971</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>408.6744289523867</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>241.4783296672667</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000582</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611859</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,22 +6309,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2190.770766644916</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1901.695539989114</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.011051783227</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1520.445529061503</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2072.35525930079</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>196.5408620426154</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6695,19 +6695,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6883,22 +6883,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7017,10 +7017,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
         <v>1577.52840832642</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7260,19 +7260,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380732</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
         <v>2496.057455973196</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,22 +7391,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
@@ -7418,16 +7418,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7497,19 +7497,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954152</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,13 +7582,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7734,19 +7734,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7810,7 +7810,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>49.74439522492673</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>49.74439522492685</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>49.74439522492668</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>49.74439522492685</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-1.167810712563724e-14</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>53.38234715449039</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>183.6773025598382</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,19 +22592,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>99.22891232250051</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22708,25 +22708,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,19 +22753,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>96.92615468724713</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.537044377342397</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.537044377342227</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>110.7502399993188</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>63.5783395738741</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.537044377342269</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.537044377342397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>29.913238313889</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440903</v>
@@ -23701,16 +23701,16 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>91.36171848162904</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23899,10 +23899,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>226.8744163489433</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>206.7713260796061</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>111.1976478713721</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>69.4750715017727</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>75.37549921168751</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.0089474405549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>211.1765892730636</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>186.142843193523</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1255131.52117906</v>
+        <v>1255131.521179061</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1255131.521179061</v>
+        <v>1255131.52117906</v>
       </c>
     </row>
     <row r="7">
@@ -26323,13 +26323,13 @@
         <v>161312.1256772246</v>
       </c>
       <c r="F2" t="n">
-        <v>161312.1256772246</v>
+        <v>161312.1256772245</v>
       </c>
       <c r="G2" t="n">
+        <v>161429.3199380013</v>
+      </c>
+      <c r="H2" t="n">
         <v>161429.3199380012</v>
-      </c>
-      <c r="H2" t="n">
-        <v>161429.3199380013</v>
       </c>
       <c r="I2" t="n">
         <v>161429.3199380013</v>
@@ -26338,7 +26338,7 @@
         <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
         <v>164208.3539728567</v>
@@ -26347,10 +26347,10 @@
         <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="O2" t="n">
         <v>164208.3539728567</v>
-      </c>
-      <c r="O2" t="n">
-        <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
         <v>164208.3539728568</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7723.906990790407</v>
+        <v>7723.906990790583</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
@@ -26424,37 +26424,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.938886718171</v>
+        <v>5759.938886718172</v>
       </c>
       <c r="F4" t="n">
-        <v>5759.938886718172</v>
+        <v>5759.93888671817</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670449</v>
+        <v>5067.592601670444</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670418</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670442</v>
       </c>
       <c r="K4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="M4" t="n">
+        <v>13058.4518647639</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13058.4518647639</v>
+      </c>
+      <c r="O4" t="n">
         <v>13058.45186476392</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13058.45186476392</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13058.45186476393</v>
       </c>
       <c r="P4" t="n">
         <v>13058.4518647639</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-656714.8562865058</v>
+        <v>-657072.0094457041</v>
       </c>
       <c r="C6" t="n">
-        <v>-119715.2300182842</v>
+        <v>-119715.2300182843</v>
       </c>
       <c r="D6" t="n">
         <v>-119715.2300182844</v>
       </c>
       <c r="E6" t="n">
-        <v>-881745.1815065668</v>
+        <v>-881781.3843602622</v>
       </c>
       <c r="F6" t="n">
-        <v>54646.22801203058</v>
+        <v>54610.02515833512</v>
       </c>
       <c r="G6" t="n">
-        <v>47515.29052163324</v>
+        <v>47480.55259619741</v>
       </c>
       <c r="H6" t="n">
-        <v>55239.19751242369</v>
+        <v>55204.459586988</v>
       </c>
       <c r="I6" t="n">
-        <v>55239.19751242372</v>
+        <v>55204.459586988</v>
       </c>
       <c r="J6" t="n">
-        <v>-121184.0216801693</v>
+        <v>-121218.759605605</v>
       </c>
       <c r="K6" t="n">
-        <v>55239.19751242369</v>
+        <v>55204.45958698794</v>
       </c>
       <c r="L6" t="n">
-        <v>28558.06826054561</v>
+        <v>28558.0682605457</v>
       </c>
       <c r="M6" t="n">
-        <v>-76222.72445388102</v>
+        <v>-76222.724453881</v>
       </c>
       <c r="N6" t="n">
+        <v>47985.78625417751</v>
+      </c>
+      <c r="O6" t="n">
         <v>47985.78625417739</v>
       </c>
-      <c r="O6" t="n">
-        <v>47985.78625417745</v>
-      </c>
       <c r="P6" t="n">
-        <v>47985.78625417751</v>
+        <v>47985.78625417748</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>154.6349851812306</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>117.2194080351573</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>182.6485533982312</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>338.8571103316979</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>263.460981998226</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>5.224454009772558</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>102.4415592764763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>261.3179249849481</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>58.74216000639422</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>202.9246923626427</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>197.0924932785203</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31835,7 +31835,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>275.9770021735818</v>
@@ -31844,16 +31844,16 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>428.3656332688754</v>
       </c>
       <c r="O12" t="n">
-        <v>224.599209452258</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982453</v>
@@ -31862,7 +31862,7 @@
         <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.2575834086216</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
@@ -32084,10 +32084,10 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>176.7138123103452</v>
+        <v>428.3656332688754</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426204</v>
@@ -32096,10 +32096,10 @@
         <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.2575834086216</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N18" t="n">
-        <v>697.0074482175629</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N21" t="n">
-        <v>379.5002789321571</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,34 +32783,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>169.6252075171348</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>245.8118639189582</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>160.6314956130963</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>414.6448185524877</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33737,13 +33737,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N39" t="n">
-        <v>604.245822599193</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N42" t="n">
-        <v>193.1175412796309</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>379.4203056753705</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>675.5219512913658</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
         <v>728.287436302058</v>
@@ -35422,7 +35422,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>739.5040280119352</v>
       </c>
       <c r="P11" t="n">
         <v>553.8443926134828</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>149.1393755069151</v>
@@ -35492,16 +35492,16 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>297.0239211855421</v>
       </c>
       <c r="O12" t="n">
-        <v>82.0029650078136</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839151</v>
@@ -35510,7 +35510,7 @@
         <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>524.1185202629891</v>
       </c>
       <c r="L14" t="n">
         <v>625.777556066439</v>
@@ -35659,7 +35659,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>739.5040280119352</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
         <v>553.8443926134828</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
@@ -35732,10 +35732,10 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>45.37210022701191</v>
+        <v>297.0239211855421</v>
       </c>
       <c r="O15" t="n">
         <v>552.400479798176</v>
@@ -35744,10 +35744,10 @@
         <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N18" t="n">
-        <v>565.6657361342296</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N21" t="n">
-        <v>248.1585668488238</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.94570355317081</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>103.6778299969399</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.64972152707474</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>272.5107846304694</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37385,13 +37385,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N39" t="n">
-        <v>472.9041105158597</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N42" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>237.2862717533522</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
